--- a/Assets/RefData/Excels/小鬼当家配置表.xlsx
+++ b/Assets/RefData/Excels/小鬼当家配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7600" activeTab="2"/>
+    <workbookView windowWidth="25600" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="trap" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="319">
   <si>
     <t>trapID</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>triggerType</t>
+  </si>
+  <si>
+    <t>noiseLevel</t>
   </si>
   <si>
     <t>示意图</t>
@@ -177,6 +180,19 @@
   </si>
   <si>
     <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>噪音等级</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Calibri"/>
@@ -329,6 +345,9 @@
     <t>只有在翘起的那一侧下压才会触发</t>
   </si>
   <si>
+    <t>，</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -428,7 +447,7 @@
     <t>D001</t>
   </si>
   <si>
-    <t>致盲</t>
+    <t>blind</t>
   </si>
   <si>
     <t>视觉效果无法生效，播放致盲动画</t>
@@ -437,7 +456,7 @@
     <t>D002</t>
   </si>
   <si>
-    <t xml:space="preserve">    跌倒</t>
+    <t xml:space="preserve">   fallingdown</t>
   </si>
   <si>
     <t xml:space="preserve">      在抛光的地板能够向前滑动一段距离</t>
@@ -446,7 +465,7 @@
     <t>D003</t>
   </si>
   <si>
-    <t xml:space="preserve">    流血</t>
+    <t xml:space="preserve">   bleed</t>
   </si>
   <si>
     <t xml:space="preserve">会在地上持续流下血迹， 不会中断得分 </t>
@@ -455,7 +474,7 @@
     <t>D004</t>
   </si>
   <si>
-    <t xml:space="preserve">    眼冒金星</t>
+    <t xml:space="preserve">    dizzy</t>
   </si>
   <si>
     <t xml:space="preserve">      一段时间内往随机的方向缓慢移动</t>
@@ -464,7 +483,7 @@
     <t>D005</t>
   </si>
   <si>
-    <t xml:space="preserve">    昏迷</t>
+    <t xml:space="preserve">   coma</t>
   </si>
   <si>
     <t xml:space="preserve">      在一段时间内不能行动</t>
@@ -473,12 +492,6 @@
     <t>D006</t>
   </si>
   <si>
-    <t xml:space="preserve">    致盲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      丧失视觉</t>
-  </si>
-  <si>
     <t>D007</t>
   </si>
   <si>
@@ -488,9 +501,6 @@
     <t>D009</t>
   </si>
   <si>
-    <t>D010</t>
-  </si>
-  <si>
     <t>F001</t>
   </si>
   <si>
@@ -752,6 +762,9 @@
     <t>技能名</t>
   </si>
   <si>
+    <t>触发条件</t>
+  </si>
+  <si>
     <t>技能说明</t>
   </si>
   <si>
@@ -761,7 +774,10 @@
     <t>身体虚</t>
   </si>
   <si>
-    <t>每移动30s就要停下来休息</t>
+    <t>移动累计30s触发</t>
+  </si>
+  <si>
+    <t>停下来休息3s</t>
   </si>
   <si>
     <t>EP002</t>
@@ -770,6 +786,9 @@
     <t>神经质</t>
   </si>
   <si>
+    <t>移动时概率触发</t>
+  </si>
+  <si>
     <t>行动中，会大声的说话</t>
   </si>
   <si>
@@ -800,9 +819,6 @@
     <t>敌人主动技能id</t>
   </si>
   <si>
-    <t>触发条件</t>
-  </si>
-  <si>
     <t>冷却时间（s）</t>
   </si>
   <si>
@@ -812,10 +828,10 @@
     <t>冲刺</t>
   </si>
   <si>
-    <t>在发现玩家时，若玩家与其距离超过10格时使用，此外，时不时地随机的使用。</t>
-  </si>
-  <si>
-    <t>向一个方向冲刺5格。</t>
+    <t>在发现玩家时，若玩家与其距离超过{5}格时必定使用。此外，随机触发</t>
+  </si>
+  <si>
+    <t>人物变红，向一个方向冲刺{5}格。</t>
   </si>
   <si>
     <t>ES002</t>
@@ -2046,10 +2062,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2060,12 +2076,12 @@
     <col min="5" max="5" width="9.75" customWidth="1"/>
     <col min="6" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="12.5833333333333" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="11" max="11" width="29.0833333333333" customWidth="1"/>
     <col min="12" max="12" width="25.1666666666667" customWidth="1"/>
     <col min="13" max="13" width="31.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:13">
+    <row r="1" ht="13" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2105,58 +2121,64 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" ht="13" customHeight="1" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" ht="13" customHeight="1" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" ht="25.5" customHeight="1" spans="1:12">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" ht="25.5" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2174,27 +2196,27 @@
         <v>-1</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" ht="25.5" customHeight="1" spans="1:12">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" spans="1:13">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2212,27 +2234,27 @@
         <v>-1</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" ht="25.5" customHeight="1" spans="1:13">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" ht="25.5" customHeight="1" spans="1:14">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2250,30 +2272,30 @@
         <v>-2</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" ht="25.5" customHeight="1" spans="1:12">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" ht="25.5" customHeight="1" spans="1:13">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2291,27 +2313,27 @@
         <v>-1</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" ht="25.5" customHeight="1" spans="1:13">
+        <v>52</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" ht="25.5" customHeight="1" spans="1:14">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2329,30 +2351,30 @@
         <v>-2</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M7" t="s">
-        <v>55</v>
+        <v>33</v>
+      </c>
+      <c r="N7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:11">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2370,24 +2392,24 @@
         <v>-1</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:11">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2405,24 +2427,24 @@
         <v>-1</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" ht="25.5" customHeight="1" spans="1:13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" ht="25.5" customHeight="1" spans="1:14">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2440,17 +2462,20 @@
         <v>-1</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K10" t="s">
-        <v>68</v>
-      </c>
-      <c r="M10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1" spans="7:7">
+        <v>70</v>
+      </c>
+      <c r="N10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1" spans="7:12">
       <c r="G11" s="8"/>
+      <c r="L11" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" ht="25.5" customHeight="1" spans="6:7">
       <c r="F12" s="5"/>
@@ -2511,7 +2536,7 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>176</v>
@@ -2700,88 +2725,98 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="15.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:3">
+    <row r="1" ht="13" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="2" ht="25.5" customHeight="1" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" ht="25.5" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" ht="25.5" customHeight="1" spans="1:3">
+        <v>215</v>
+      </c>
+      <c r="D2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" ht="25.5" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>219</v>
+      </c>
+      <c r="D3" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2796,43 +2831,46 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="5" width="19" customWidth="1"/>
+    <col min="1" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="72.25" customWidth="1"/>
+    <col min="4" max="4" width="31.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -2840,47 +2878,47 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2905,10 +2943,10 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:2">
@@ -2916,7 +2954,7 @@
         <v>182</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:2">
@@ -2924,7 +2962,7 @@
         <v>182</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1"/>
@@ -2957,10 +2995,10 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:2">
@@ -2968,7 +3006,7 @@
         <v>182</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1"/>
@@ -3002,352 +3040,352 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C8" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C9" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B11" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C11" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D11" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C12" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D12" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B13" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C13" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D13" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B14" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C14" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D14" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B15" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C15" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D15" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1" spans="1:4">
       <c r="A16" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B16" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C16" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D16" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1" spans="1:4">
       <c r="A17" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B17" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C17" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D17" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B18" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C18" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D18" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1" spans="1:4">
       <c r="A19" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B19" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C19" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D19" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1" spans="1:4">
       <c r="A20" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B20" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C20" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D20" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1" spans="1:4">
       <c r="A21" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B21" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C21" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D21" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1" spans="1:4">
       <c r="A22" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B22" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C22" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D22" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1" spans="1:4">
       <c r="A23" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B23" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C23" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D23" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1" spans="1:4">
       <c r="A24" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B24" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C24" t="s">
+        <v>316</v>
+      </c>
+      <c r="D24" t="s">
         <v>314</v>
-      </c>
-      <c r="D24" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1" spans="1:2">
       <c r="A25" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B25" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -3372,142 +3410,142 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C2">
         <v>0.5</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <v>0.4</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:5">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C4">
         <v>-1</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C5">
         <v>0.4</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C6">
         <v>0.3</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C7">
         <v>0.6</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:5">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C9">
         <v>-1</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -3515,7 +3553,7 @@
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3527,10 +3565,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -3540,13 +3578,13 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -3554,13 +3592,13 @@
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D2">
         <v>30</v>
@@ -3568,13 +3606,13 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -3582,13 +3620,13 @@
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D4">
         <v>30</v>
@@ -3596,13 +3634,13 @@
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -3610,49 +3648,35 @@
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="25.5" customHeight="1" spans="1:4">
+    <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A11" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3678,10 +3702,10 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:2">
@@ -3759,10 +3783,10 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:2">
@@ -3886,10 +3910,10 @@
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3897,10 +3921,10 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3908,10 +3932,10 @@
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3919,10 +3943,10 @@
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -3930,10 +3954,10 @@
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -3941,10 +3965,10 @@
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3952,10 +3976,10 @@
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3963,10 +3987,10 @@
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:3">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3974,10 +3998,10 @@
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -4110,7 +4134,7 @@
         <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:3">
@@ -4121,7 +4145,7 @@
         <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:3">
@@ -4132,7 +4156,7 @@
         <v>137</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:3">
@@ -4143,7 +4167,7 @@
         <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:3">
@@ -4154,7 +4178,7 @@
         <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:3">
@@ -4165,7 +4189,7 @@
         <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:3">
@@ -4176,7 +4200,7 @@
         <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:3">
@@ -4187,7 +4211,7 @@
         <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:3">
@@ -4198,7 +4222,7 @@
         <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:3">
@@ -4209,7 +4233,7 @@
         <v>139</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RefData/Excels/小鬼当家配置表.xlsx
+++ b/Assets/RefData/Excels/小鬼当家配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080"/>
+    <workbookView windowWidth="24750" windowHeight="12080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="trap" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="350">
   <si>
     <t>trapID</t>
   </si>
@@ -77,7 +77,13 @@
     <t>triggerType</t>
   </si>
   <si>
-    <t>noiseLevel</t>
+    <t>noiseSet</t>
+  </si>
+  <si>
+    <t>noiseWork</t>
+  </si>
+  <si>
+    <t>Noise_hit</t>
   </si>
   <si>
     <t>示意图</t>
@@ -180,6 +186,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>#</t>
     </r>
     <r>
@@ -188,7 +199,43 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>噪音等级</t>
+      <t>设置陷阱的声音</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陷阱被触发时的声音</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>击中敌人的声音</t>
     </r>
   </si>
   <si>
@@ -306,7 +353,7 @@
     <t>T006</t>
   </si>
   <si>
-    <t>人体弹弓</t>
+    <t>人体弹弓（粘性秋千）</t>
   </si>
   <si>
     <t>当敌人靠近陷阱时会被粘住，随后会被粘在秋千上。若玩家不在敌人附近，敌人将花费10s解除陷阱。若玩家靠近敌人，敌人会被吸引，并在往玩家方向移动一定距离之后，做往复运动。3次往复运动后会被抛飞至一定距离。若落点处没有其他陷阱，敌人会被扣除三点精神值。随后进入眼冒金星状态。</t>
@@ -318,7 +365,7 @@
     <t>T007</t>
   </si>
   <si>
-    <t>木马头槌</t>
+    <t>木马头槌（锤头木马）</t>
   </si>
   <si>
     <t>当玩家与陷阱互动之后，会抱住木马，此时玩家可以拖动木马往后挪动至多两格的距离（越往后移动速度越慢）。随后按下互动键释放木马，木马会回弹，对移动方向上的敌人造成伤害。蓄力的距离越长，回弹的距离越长，伤害越高。若没有击中敌人，则会再次回弹，如果击中玩家，玩家将眩晕1s</t>
@@ -330,7 +377,7 @@
     <t>T008</t>
   </si>
   <si>
-    <t>火山毒蛇</t>
+    <t>火山毒蛇（升龙跷跷板）</t>
   </si>
   <si>
     <t>玩家在冲刺跳上跷跷板，使另外一边如同升龙拳一般向上抬升。若成功击中敌人，将其击飞三格，反之使自身陷入0.5s的硬直时间</t>
@@ -444,6 +491,103 @@
     <t>M010</t>
   </si>
   <si>
+    <t>buffName</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> priority</t>
+  </si>
+  <si>
+    <t>maxStack</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>isForever</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> duration</t>
+  </si>
+  <si>
+    <t>tickTime</t>
+  </si>
+  <si>
+    <t>#buffid</t>
+  </si>
+  <si>
+    <r>
+      <t>#buff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#buff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#icon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>路径</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>优先级</t>
+    </r>
+  </si>
+  <si>
+    <t>#最大层数</t>
+  </si>
+  <si>
+    <t>#buff特征</t>
+  </si>
+  <si>
+    <t>#是否永久</t>
+  </si>
+  <si>
+    <t>#持续时间</t>
+  </si>
+  <si>
+    <t>#触发间隔</t>
+  </si>
+  <si>
     <t>D001</t>
   </si>
   <si>
@@ -453,13 +597,24 @@
     <t>视觉效果无法生效，播放致盲动画</t>
   </si>
   <si>
+    <t>icon/buff/blind</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
     <t>D002</t>
   </si>
   <si>
     <t xml:space="preserve">   fallingdown</t>
   </si>
   <si>
-    <t xml:space="preserve">      在抛光的地板能够向前滑动一段距离</t>
+    <t>在普通的地板上会直接摔倒，
+在抛光的地板能够向前滑动一段距离，
+最后花2s时间重新站起</t>
+  </si>
+  <si>
+    <t>icon/buff/fallingdown</t>
   </si>
   <si>
     <t>D003</t>
@@ -468,7 +623,13 @@
     <t xml:space="preserve">   bleed</t>
   </si>
   <si>
-    <t xml:space="preserve">会在地上持续流下血迹， 不会中断得分 </t>
+    <t xml:space="preserve">会在地上持续流下血迹， 持续刷新得分板 </t>
+  </si>
+  <si>
+    <t>icon/buff/bleed</t>
+  </si>
+  <si>
+    <t>sign|count</t>
   </si>
   <si>
     <t>D004</t>
@@ -480,6 +641,9 @@
     <t xml:space="preserve">      一段时间内往随机的方向缓慢移动</t>
   </si>
   <si>
+    <t>icon/buff/dizzy</t>
+  </si>
+  <si>
     <t>D005</t>
   </si>
   <si>
@@ -489,6 +653,9 @@
     <t xml:space="preserve">      在一段时间内不能行动</t>
   </si>
   <si>
+    <t>icon/buff/coma</t>
+  </si>
+  <si>
     <t>D006</t>
   </si>
   <si>
@@ -609,13 +776,16 @@
     <t>数量</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>房间id</t>
+  </si>
+  <si>
+    <t>家具id</t>
+  </si>
+  <si>
     <t>关系id</t>
-  </si>
-  <si>
-    <t>房间id</t>
-  </si>
-  <si>
-    <t>家具id</t>
   </si>
   <si>
     <t>道具id</t>
@@ -1714,7 +1884,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1724,6 +1894,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2062,26 +2235,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="255.583333333333" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="13.525" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="9.75" customWidth="1"/>
     <col min="6" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="12.5833333333333" customWidth="1"/>
     <col min="11" max="11" width="29.0833333333333" customWidth="1"/>
-    <col min="12" max="12" width="25.1666666666667" customWidth="1"/>
-    <col min="13" max="13" width="31.1666666666667" customWidth="1"/>
+    <col min="12" max="12" width="14.1666666666667" customWidth="1"/>
+    <col min="13" max="13" width="17.8333333333333" customWidth="1"/>
+    <col min="14" max="14" width="14.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:14">
+    <row r="1" ht="13" customHeight="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2097,10 +2272,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2124,61 +2299,73 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" ht="13" customHeight="1" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="13" customHeight="1" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="F2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" ht="25.5" customHeight="1" spans="1:13">
+        <v>28</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" ht="25.5" customHeight="1" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2186,7 +2373,7 @@
       <c r="F3" s="3">
         <v>3</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
         <v>-2</v>
       </c>
       <c r="H3">
@@ -2196,27 +2383,36 @@
         <v>-1</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" ht="25.5" customHeight="1" spans="1:13">
+        <v>36</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" spans="1:15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2224,7 +2420,7 @@
       <c r="F4" s="3">
         <v>5</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="8">
         <v>6</v>
       </c>
       <c r="H4">
@@ -2234,27 +2430,36 @@
         <v>-1</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" ht="25.5" customHeight="1" spans="1:14">
+        <v>43</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" ht="25.5" customHeight="1" spans="1:16">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2262,7 +2467,7 @@
       <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="8">
         <v>3</v>
       </c>
       <c r="H5">
@@ -2272,30 +2477,39 @@
         <v>-2</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" ht="25.5" customHeight="1" spans="1:13">
+        <v>49</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" ht="25.5" customHeight="1" spans="1:15">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2303,7 +2517,7 @@
       <c r="F6" s="3">
         <v>3</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="8">
         <v>2</v>
       </c>
       <c r="H6">
@@ -2313,27 +2527,36 @@
         <v>-1</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" ht="25.5" customHeight="1" spans="1:14">
+        <v>56</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" ht="25.5" customHeight="1" spans="1:16">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2341,7 +2564,7 @@
       <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="8">
         <v>2</v>
       </c>
       <c r="H7">
@@ -2351,30 +2574,39 @@
         <v>-2</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" ht="25.5" customHeight="1" spans="1:11">
+        <v>36</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" ht="25.5" customHeight="1" spans="1:14">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2382,7 +2614,7 @@
       <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="8">
         <v>-2</v>
       </c>
       <c r="H8">
@@ -2392,24 +2624,33 @@
         <v>-1</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" ht="25.5" customHeight="1" spans="1:11">
+        <v>43</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1" spans="1:14">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2417,7 +2658,7 @@
       <c r="F9" s="3">
         <v>3</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="8">
         <v>-2</v>
       </c>
       <c r="H9">
@@ -2427,24 +2668,33 @@
         <v>-1</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" ht="25.5" customHeight="1" spans="1:14">
+        <v>36</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" ht="25.5" customHeight="1" spans="1:16">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2452,7 +2702,7 @@
       <c r="F10" s="3">
         <v>-1</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="8">
         <v>7</v>
       </c>
       <c r="H10">
@@ -2462,36 +2712,45 @@
         <v>-1</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K10" t="s">
-        <v>70</v>
-      </c>
-      <c r="N10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1" spans="7:12">
-      <c r="G11" s="8"/>
-      <c r="L11" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="P10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1" spans="7:14">
+      <c r="G11" s="9"/>
+      <c r="N11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1" spans="6:7">
-      <c r="F12" s="5"/>
-      <c r="G12" s="8"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" ht="25.5" customHeight="1" spans="6:7">
       <c r="F13" s="3"/>
-      <c r="G13" s="8"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="6:7">
       <c r="F14" s="3"/>
-      <c r="G14" s="8"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="6:7">
       <c r="F15" s="3"/>
-      <c r="G15" s="8"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="6:7">
       <c r="F16" s="3"/>
@@ -2510,7 +2769,7 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="6:6">
-      <c r="F20" s="5"/>
+      <c r="F20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2536,33 +2795,33 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="C2" s="3">
         <v>100</v>
@@ -2582,47 +2841,47 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2648,72 +2907,72 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:3">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2739,84 +2998,84 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="C1" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2844,33 +3103,33 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="D2" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -2878,47 +3137,47 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2943,26 +3202,26 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:2">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1"/>
@@ -2995,18 +3254,18 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:2">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1"/>
@@ -3040,352 +3299,352 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="C2" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="D2" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="C3" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="D3" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="D4" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="B5" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="C5" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="D5" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="B6" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="C6" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="D6" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="B7" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="C7" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="D7" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="B8" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="C8" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="D8" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="B9" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="C9" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="D9" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="B10" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="C10" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="D10" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="B11" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="C11" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="D11" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1" spans="1:4">
       <c r="A12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B12" t="s">
         <v>284</v>
       </c>
-      <c r="B12" t="s">
-        <v>253</v>
-      </c>
       <c r="C12" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="D12" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="B13" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="C13" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="D13" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="B14" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C14" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D14" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="B15" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="C15" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="D15" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1" spans="1:4">
       <c r="A16" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="B16" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="C16" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="D16" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1" spans="1:4">
       <c r="A17" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="B17" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="C17" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="D17" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="B18" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="C18" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="D18" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1" spans="1:4">
       <c r="A19" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="B19" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="C19" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="D19" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1" spans="1:4">
       <c r="A20" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="B20" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="C20" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="D20" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1" spans="1:4">
       <c r="A21" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="B21" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="C21" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="D21" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1" spans="1:4">
       <c r="A22" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="B22" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="C22" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="D22" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1" spans="1:4">
       <c r="A23" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="B23" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="C23" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="D23" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1" spans="1:4">
       <c r="A24" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="B24" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="C24" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="D24" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1" spans="1:2">
       <c r="A25" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="B25" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3410,142 +3669,142 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C2">
         <v>0.5</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C3">
         <v>0.4</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:5">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>-1</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C5">
         <v>0.4</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>0.3</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C7">
         <v>0.6</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:5">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C9">
         <v>-1</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -3553,7 +3812,7 @@
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3565,119 +3824,231 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="4" width="19" customWidth="1"/>
+    <col min="1" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="36.5833333333333" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:4">
+    <row r="1" ht="13" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" ht="25.5" customHeight="1" spans="1:4">
-      <c r="A2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2">
+        <v>111</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" ht="25.5" customHeight="1" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" ht="25.5" customHeight="1" spans="1:9">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>30</v>
       </c>
     </row>
-    <row r="3" ht="25.5" customHeight="1" spans="1:4">
-      <c r="A3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3">
+    <row r="4" ht="42" spans="1:9">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="25.5" customHeight="1" spans="1:4">
-      <c r="A4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4">
+    <row r="5" ht="25.5" customHeight="1" spans="1:9">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="25.5" customHeight="1" spans="1:4">
-      <c r="A5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5">
+    <row r="6" ht="25.5" customHeight="1" spans="1:9">
+      <c r="A6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="25.5" customHeight="1" spans="1:4">
-      <c r="A6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6">
+    <row r="7" ht="25.5" customHeight="1" spans="1:9">
+      <c r="A7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>10</v>
-      </c>
-    </row>
-    <row r="7" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3702,63 +4073,63 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:2">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3783,98 +4154,98 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:2">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:2">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:2">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:2">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:2">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:2">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:2">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1" spans="1:2">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3899,21 +4270,21 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3921,10 +4292,10 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3932,10 +4303,10 @@
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3943,10 +4314,10 @@
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -3954,10 +4325,10 @@
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -3965,10 +4336,10 @@
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:3">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3976,10 +4347,10 @@
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3987,10 +4358,10 @@
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:3">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3998,10 +4369,10 @@
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -4030,13 +4401,13 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:3">
@@ -4044,10 +4415,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
@@ -4117,13 +4488,13 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:3">
@@ -4131,10 +4502,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:3">
@@ -4142,10 +4513,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:3">
@@ -4153,10 +4524,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:3">
@@ -4164,10 +4535,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:3">
@@ -4175,10 +4546,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:3">
@@ -4186,10 +4557,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:3">
@@ -4197,10 +4568,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:3">
@@ -4208,10 +4579,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:3">
@@ -4219,10 +4590,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:3">
@@ -4230,10 +4601,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4258,63 +4629,63 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:1">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="C11" s="4"/>
     </row>

--- a/Assets/RefData/Excels/小鬼当家配置表.xlsx
+++ b/Assets/RefData/Excels/小鬼当家配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080" activeTab="2"/>
+    <workbookView windowWidth="24750" windowHeight="12080" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="trap" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="371">
   <si>
     <t>trapID</t>
   </si>
@@ -491,6 +491,30 @@
     <t>M010</t>
   </si>
   <si>
+    <t>小车</t>
+  </si>
+  <si>
+    <t>遥控不见了，只能往前走</t>
+  </si>
+  <si>
+    <t>M011</t>
+  </si>
+  <si>
+    <t>沙发坐垫</t>
+  </si>
+  <si>
+    <t>记录三战（第三次枕头大战）的珍贵史料</t>
+  </si>
+  <si>
+    <t>M012</t>
+  </si>
+  <si>
+    <t>一管白胶</t>
+  </si>
+  <si>
+    <t>沾到了很难洗掉</t>
+  </si>
+  <si>
     <t>buffName</t>
   </si>
   <si>
@@ -522,6 +546,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>#buff</t>
     </r>
     <r>
@@ -535,6 +564,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>#buff</t>
     </r>
     <r>
@@ -548,6 +582,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>#icon</t>
     </r>
     <r>
@@ -561,6 +600,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>#</t>
     </r>
     <r>
@@ -674,18 +718,39 @@
     <t>洗衣机</t>
   </si>
   <si>
+    <t>可作为陷阱装置的载体，或者洗掉衣服上的痕迹</t>
+  </si>
+  <si>
     <t>F002</t>
   </si>
   <si>
+    <t>摇摇木马</t>
+  </si>
+  <si>
+    <t>可作为陷阱装置的载体</t>
+  </si>
+  <si>
     <t>F003</t>
   </si>
   <si>
+    <t>秋千</t>
+  </si>
+  <si>
     <t>F004</t>
   </si>
   <si>
+    <t>跷跷板</t>
+  </si>
+  <si>
     <t>F005</t>
   </si>
   <si>
+    <t>灯的开关</t>
+  </si>
+  <si>
+    <t>与开关互动控制房间的明暗</t>
+  </si>
+  <si>
     <t>F006</t>
   </si>
   <si>
@@ -788,18 +853,26 @@
     <t>关系id</t>
   </si>
   <si>
-    <t>道具id</t>
-  </si>
-  <si>
-    <t>道具名</t>
-  </si>
-  <si>
-    <t>射程</t>
+    <t>itemId</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>describition</t>
   </si>
   <si>
     <t>h001</t>
   </si>
   <si>
+    <t>sticky_light_ball</t>
+  </si>
+  <si>
+    <t>一种粘性的发光小球，
+能够粘在敌人或特定位置上，
+在黑暗环境中发光。</t>
+  </si>
+  <si>
     <t>h002</t>
   </si>
   <si>
@@ -878,16 +951,16 @@
     <t>E010</t>
   </si>
   <si>
-    <t>家具状态id</t>
-  </si>
-  <si>
-    <t>状态名</t>
-  </si>
-  <si>
-    <t>效果</t>
-  </si>
-  <si>
-    <t>持续时间</t>
+    <t>environmentId</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>duration</t>
   </si>
   <si>
     <t>FS001</t>
@@ -896,12 +969,25 @@
     <t>滑滑地板</t>
   </si>
   <si>
-    <t xml:space="preserve">  敌人（玩家）在上面移动变的困难，受到攻击会跌倒。跌倒之后会往攻击的方向移动一段距离，在此期间若敌人撞到墙壁或是家具会扣除2点精神值，玩家则会眩晕2秒。</t>
+    <t>地板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  敌人（玩家）在上面移动变的困难，受到攻击会跌倒。
+跌倒之后会往攻击的方向移动一段距离，在此期间若敌人撞到墙壁或是家具会扣除2点精神值，玩家则会眩晕2秒。</t>
   </si>
   <si>
     <t>FS002</t>
   </si>
   <si>
+    <t>黑暗</t>
+  </si>
+  <si>
+    <t>房间</t>
+  </si>
+  <si>
+    <t>在黑暗环境，敌人的视野范围减半</t>
+  </si>
+  <si>
     <t>FS003</t>
   </si>
   <si>
@@ -959,7 +1045,7 @@
     <t>移动时概率触发</t>
   </si>
   <si>
-    <t>行动中，会大声的说话</t>
+    <t>大声的说话</t>
   </si>
   <si>
     <t>EP003</t>
@@ -1884,7 +1970,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1892,11 +1978,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2237,8 +2326,8 @@
   <sheetPr/>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2272,10 +2361,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2322,10 +2411,10 @@
       <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -2370,10 +2459,10 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>3</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="9">
         <v>-2</v>
       </c>
       <c r="H3">
@@ -2417,10 +2506,10 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>5</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="9">
         <v>6</v>
       </c>
       <c r="H4">
@@ -2464,10 +2553,10 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
         <v>3</v>
       </c>
       <c r="H5">
@@ -2514,10 +2603,10 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>3</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="9">
         <v>2</v>
       </c>
       <c r="H6">
@@ -2561,10 +2650,10 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="9">
         <v>2</v>
       </c>
       <c r="H7">
@@ -2611,10 +2700,10 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9">
         <v>-2</v>
       </c>
       <c r="H8">
@@ -2655,10 +2744,10 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>3</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="9">
         <v>-2</v>
       </c>
       <c r="H9">
@@ -2671,7 +2760,7 @@
         <v>35</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -2699,10 +2788,10 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>-1</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="9">
         <v>7</v>
       </c>
       <c r="H10">
@@ -2731,45 +2820,45 @@
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="7:14">
-      <c r="G11" s="9"/>
+      <c r="G11" s="10"/>
       <c r="N11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1" spans="6:7">
-      <c r="F12" s="6"/>
-      <c r="G12" s="9"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" ht="25.5" customHeight="1" spans="6:7">
-      <c r="F13" s="3"/>
-      <c r="G13" s="9"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="6:7">
-      <c r="F14" s="3"/>
-      <c r="G14" s="9"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="6:7">
-      <c r="F15" s="3"/>
-      <c r="G15" s="9"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="6:7">
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="6:7">
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="6:7">
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="6:7">
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="6:6">
-      <c r="F20" s="6"/>
+      <c r="F20" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2798,38 +2887,38 @@
         <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" s="3">
+        <v>231</v>
+      </c>
+      <c r="C2" s="4">
         <v>100</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
         <v>1</v>
       </c>
       <c r="F2">
@@ -2841,47 +2930,47 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2894,85 +2983,107 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="19" customWidth="1"/>
+    <col min="1" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="92.4166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:4">
+    <row r="1" ht="13" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" ht="25.5" customHeight="1" spans="1:3">
+        <v>242</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" ht="25.5" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" ht="25.5" customHeight="1" spans="1:1">
+        <v>247</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="25.5" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>249</v>
+      </c>
+      <c r="B3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2987,7 +3098,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2998,84 +3109,84 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="C1" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="C2" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="D2" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="D3" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3103,33 +3214,33 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="C2" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -3137,47 +3248,47 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -3202,26 +3313,26 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:2">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1"/>
@@ -3254,18 +3365,18 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:2">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1"/>
@@ -3299,19 +3410,19 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
@@ -3319,332 +3430,332 @@
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="C2" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="D2" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="B3" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="C3" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="D3" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="B4" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="C4" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="D4" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="C5" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="D5" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="C6" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="D6" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="B7" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="C7" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="D7" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="B8" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="C8" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="D8" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="B9" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="C9" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="D9" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="B10" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="C10" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="D10" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="B11" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="C11" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="D11" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="B12" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="C12" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="D12" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="B13" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="C13" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="D13" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="B14" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="C14" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="D14" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="B15" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="C15" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="D15" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1" spans="1:4">
       <c r="A16" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="B16" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="C16" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="D16" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1" spans="1:4">
       <c r="A17" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="B17" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="C17" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="D17" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="B18" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="C18" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="D18" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1" spans="1:4">
       <c r="A19" t="s">
+        <v>348</v>
+      </c>
+      <c r="B19" t="s">
         <v>327</v>
       </c>
-      <c r="B19" t="s">
-        <v>306</v>
-      </c>
       <c r="C19" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="D19" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1" spans="1:4">
       <c r="A20" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="B20" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="C20" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="D20" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1" spans="1:4">
       <c r="A21" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="B21" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="C21" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="D21" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1" spans="1:4">
       <c r="A22" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="B22" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="C22" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="D22" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1" spans="1:4">
       <c r="A23" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="B23" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="C23" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="D23" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1" spans="1:4">
       <c r="A24" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="B24" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="C24" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="D24" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1" spans="1:2">
       <c r="A25" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="B25" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -3656,15 +3767,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="6" width="19" customWidth="1"/>
+    <col min="1" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="37.25" customWidth="1"/>
+    <col min="5" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:5">
@@ -3810,9 +3923,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="25.5" customHeight="1" spans="1:1">
+    <row r="11" ht="25.5" customHeight="1" spans="1:4">
       <c r="A11" t="s">
         <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13">
+        <v>0.6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3826,8 +3976,8 @@
   <sheetPr/>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3842,83 +3992,83 @@
         <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="I1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="J1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="I2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="J2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:9">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3929,22 +4079,22 @@
     </row>
     <row r="4" ht="42" spans="1:9">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3955,22 +4105,22 @@
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:9">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3981,22 +4131,22 @@
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:9">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -4007,22 +4157,22 @@
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:9">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -4033,22 +4183,22 @@
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4060,76 +4210,107 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:2">
+    <row r="1" ht="13" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" ht="25.5" customHeight="1" spans="1:2">
+      <c r="C1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" ht="25.5" customHeight="1" spans="1:3">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" ht="25.5" customHeight="1" spans="1:1">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" ht="25.5" customHeight="1" spans="1:3">
       <c r="A3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" ht="25.5" customHeight="1" spans="1:1">
+        <v>165</v>
+      </c>
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" spans="1:3">
       <c r="A4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" ht="25.5" customHeight="1" spans="1:1">
+        <v>168</v>
+      </c>
+      <c r="B4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" ht="25.5" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" ht="25.5" customHeight="1" spans="1:1">
+        <v>170</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" ht="25.5" customHeight="1" spans="1:3">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>172</v>
+      </c>
+      <c r="B6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -4144,7 +4325,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -4162,90 +4343,90 @@
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:2">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:2">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:2">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:2">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:2">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:2">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:2">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1" spans="1:2">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4257,10 +4438,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -4270,13 +4451,13 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:3">
@@ -4378,7 +4559,104 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="25.5" customHeight="1"/>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="str">
+        <f>材料!A12</f>
+        <v>M011</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="str">
+        <f>材料!A13</f>
+        <v>M012</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="str">
+        <f>trap!A9</f>
+        <v>T007</v>
+      </c>
+      <c r="B15" t="str">
+        <f>材料!A3</f>
+        <v>M002</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="str">
+        <f>trap!A9</f>
+        <v>T007</v>
+      </c>
+      <c r="B16" t="str">
+        <f>材料!A2</f>
+        <v>M001</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="str">
+        <f>trap!A10</f>
+        <v>T008</v>
+      </c>
+      <c r="B17" t="str">
+        <f>材料!A3</f>
+        <v>M002</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="str">
+        <f>trap!A10</f>
+        <v>T008</v>
+      </c>
+      <c r="B18" t="str">
+        <f>材料!A7</f>
+        <v>M006</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4391,7 +4669,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -4401,13 +4679,13 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:3">
@@ -4415,25 +4693,48 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" ht="25.5" customHeight="1" spans="1:1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" ht="25.5" customHeight="1" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" ht="25.5" customHeight="1" spans="1:1">
+      <c r="B3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" t="str">
+        <f>家具!A3</f>
+        <v>F002</v>
+      </c>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" ht="25.5" customHeight="1" spans="1:1">
+      <c r="B4" t="str">
+        <f>房间!A12</f>
+        <v>B011</v>
+      </c>
+      <c r="C4" t="str">
+        <f>家具!A4</f>
+        <v>F003</v>
+      </c>
+    </row>
+    <row r="5" ht="25.5" customHeight="1" spans="1:3">
       <c r="A5">
         <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <f>房间!A12</f>
+        <v>B011</v>
+      </c>
+      <c r="C5" t="str">
+        <f>家具!A5</f>
+        <v>F004</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
@@ -4475,10 +4776,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B23" sqref="B23:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -4488,13 +4789,13 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:3">
@@ -4502,7 +4803,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
         <v>100</v>
@@ -4513,7 +4814,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
         <v>81</v>
@@ -4524,7 +4825,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
         <v>84</v>
@@ -4535,7 +4836,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C5" t="s">
         <v>91</v>
@@ -4546,7 +4847,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C6" t="s">
         <v>94</v>
@@ -4557,7 +4858,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C7" t="s">
         <v>97</v>
@@ -4568,7 +4869,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s">
         <v>81</v>
@@ -4579,7 +4880,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C9" t="s">
         <v>84</v>
@@ -4590,7 +4891,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C10" t="s">
         <v>91</v>
@@ -4601,10 +4902,47 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C11" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <f>房间!A5</f>
+        <v>B004</v>
+      </c>
+      <c r="C13" t="str">
+        <f>材料!A12</f>
+        <v>M011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <f>房间!A3</f>
+        <v>B002</v>
+      </c>
+      <c r="C14" t="str">
+        <f>材料!A13</f>
+        <v>M012</v>
       </c>
     </row>
   </sheetData>
@@ -4616,78 +4954,92 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="5" width="19" customWidth="1"/>
+    <col min="1" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="29.0833333333333" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:3">
+    <row r="1" ht="13" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>195</v>
+        <v>209</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" ht="25.5" customHeight="1" spans="1:1">
+        <v>210</v>
+      </c>
+      <c r="D1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" ht="42" spans="1:4">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>212</v>
+      </c>
+      <c r="B2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>223</v>
+      </c>
+      <c r="C11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Assets/RefData/Excels/小鬼当家配置表.xlsx
+++ b/Assets/RefData/Excels/小鬼当家配置表.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080" firstSheet="1" activeTab="8"/>
+    <workbookView windowWidth="24750" windowHeight="12080" tabRatio="905" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="trap" sheetId="2" r:id="rId1"/>
-    <sheet name="材料" sheetId="3" r:id="rId2"/>
+    <sheet name="material" sheetId="3" r:id="rId2"/>
     <sheet name="负面效果" sheetId="4" r:id="rId3"/>
     <sheet name="家具" sheetId="5" r:id="rId4"/>
     <sheet name="房间" sheetId="6" r:id="rId5"/>
@@ -22,7 +22,6 @@
     <sheet name="敌人主动技能" sheetId="14" r:id="rId13"/>
     <sheet name="敌人_被动" sheetId="15" r:id="rId14"/>
     <sheet name="敌人_主动" sheetId="16" r:id="rId15"/>
-    <sheet name="音效需求文档（_" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="273">
   <si>
     <t>trapID</t>
   </si>
@@ -53,43 +52,55 @@
     <t>trapDesc</t>
   </si>
   <si>
-    <t>trapIcon</t>
+    <t>trapIconPath</t>
   </si>
   <si>
     <t>trapLevel</t>
   </si>
   <si>
-    <t>setTime</t>
-  </si>
-  <si>
     <t>trapDamage</t>
   </si>
   <si>
-    <t>validTime</t>
-  </si>
-  <si>
-    <t>lastTime</t>
-  </si>
-  <si>
-    <t>trapTypeList</t>
-  </si>
-  <si>
     <t>triggerType</t>
   </si>
   <si>
-    <t>noiseSet</t>
-  </si>
-  <si>
-    <t>noiseWork</t>
-  </si>
-  <si>
-    <t>Noise_hit</t>
-  </si>
-  <si>
-    <t>示意图</t>
-  </si>
-  <si>
-    <t>备注</t>
+    <t>validType</t>
+  </si>
+  <si>
+    <t>deadTypeList</t>
+  </si>
+  <si>
+    <t>deadDelayTime</t>
+  </si>
+  <si>
+    <t>placeTime</t>
+  </si>
+  <si>
+    <t>interactSoundName</t>
+  </si>
+  <si>
+    <t>pickSoundName</t>
+  </si>
+  <si>
+    <t>workSoundName</t>
+  </si>
+  <si>
+    <t>deadSoundName</t>
+  </si>
+  <si>
+    <t>interactParticleName</t>
+  </si>
+  <si>
+    <t>pickParticleName</t>
+  </si>
+  <si>
+    <t>workParticleName</t>
+  </si>
+  <si>
+    <t>deadParticleName</t>
+  </si>
+  <si>
+    <t>Score</t>
   </si>
   <si>
     <t>#陷阱</t>
@@ -102,11 +113,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t>#</t>
     </r>
     <r>
@@ -119,12 +125,22 @@
     </r>
   </si>
   <si>
+    <t>#陷阱评级</t>
+  </si>
+  <si>
+    <t>#陷阱伤害</t>
+  </si>
+  <si>
+    <t>#陷阱类型</t>
+  </si>
+  <si>
+    <t>#生效时间</t>
+  </si>
+  <si>
+    <t>#销毁类型</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t>#</t>
     </r>
     <r>
@@ -133,28 +149,11 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>陷阱评级</t>
+      <t>死亡延迟时间</t>
     </r>
   </si>
   <si>
-    <t>#放置时间</t>
-  </si>
-  <si>
-    <t>#陷阱伤害</t>
-  </si>
-  <si>
-    <t>#陷阱生效时间</t>
-  </si>
-  <si>
-    <t>#陷阱持续时间</t>
-  </si>
-  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t>#</t>
     </r>
     <r>
@@ -163,16 +162,11 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>陷阱类型</t>
+      <t>放置时间</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t>#</t>
     </r>
     <r>
@@ -181,16 +175,14 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>触发类型</t>
+      <t>互动声音</t>
     </r>
   </si>
   <si>
+    <t>#拾取声音</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t>#</t>
     </r>
     <r>
@@ -199,16 +191,14 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>设置陷阱的声音</t>
+      <t>触发声音</t>
     </r>
   </si>
   <si>
+    <t>销毁声音</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t>#</t>
     </r>
     <r>
@@ -217,16 +207,62 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>陷阱被触发时的声音</t>
+      <t>互动粒子特效</t>
     </r>
   </si>
   <si>
+    <t>#拾取粒子特效</t>
+  </si>
+  <si>
+    <t>#触发粒子特效</t>
+  </si>
+  <si>
+    <t>#销毁粒子特效</t>
+  </si>
+  <si>
+    <t>#得分</t>
+  </si>
+  <si>
+    <t>T001</t>
+  </si>
+  <si>
+    <t>水桶摆锤_主动_基础</t>
+  </si>
+  <si>
+    <t>T002</t>
+  </si>
+  <si>
+    <t>水桶摆锤_被动_绊线</t>
+  </si>
+  <si>
+    <t>T003</t>
+  </si>
+  <si>
+    <t>电动小车</t>
+  </si>
+  <si>
+    <t>materialID</t>
+  </si>
+  <si>
+    <t>materialName</t>
+  </si>
+  <si>
+    <t>materialDesc</t>
+  </si>
+  <si>
+    <t>materialIconPath</t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>useSoundName</t>
+  </si>
+  <si>
+    <t>useParticleName</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t>#</t>
     </r>
     <r>
@@ -235,16 +271,11 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>击中敌人的声音</t>
+      <t>材料id</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t>#</t>
     </r>
     <r>
@@ -253,266 +284,134 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>陷阱示意图</t>
+      <t>材料名</t>
     </r>
   </si>
   <si>
-    <t>T001</t>
-  </si>
-  <si>
-    <t>水桶摆锤_主动_基础</t>
-  </si>
-  <si>
-    <t>飞向玩家所面对的方向。玩家手中的手持道具击打系数越高，伤害越高</t>
-  </si>
-  <si>
-    <t>icon/trap/bucket_hammer_1</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>玩家主动触发</t>
-  </si>
-  <si>
-    <t>image.png</t>
-  </si>
-  <si>
-    <t>T002</t>
-  </si>
-  <si>
-    <t>水桶摆锤_被动_绊线</t>
-  </si>
-  <si>
-    <t>飞向敌人的位置，扣除敌人五点精神值</t>
-  </si>
-  <si>
-    <t>icon/trap/bucket_hammer_2</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>通过触媒触发</t>
-  </si>
-  <si>
-    <t>T003</t>
-  </si>
-  <si>
-    <t>电池发热装置</t>
-  </si>
-  <si>
-    <t>陷阱被放置在家具上后，需要10s生效。持续【电量/5】s。，扣除敌人3点精神值。并在之后被分解。</t>
-  </si>
-  <si>
-    <t>icon/trap/battery_heater</t>
-  </si>
-  <si>
-    <t>Time_Valid|Negative</t>
-  </si>
-  <si>
-    <t>敌人与陷阱附着的家具互动触发</t>
-  </si>
-  <si>
-    <t>持续时间 = {电池当前电量/5}</t>
-  </si>
-  <si>
-    <t>T004</t>
-  </si>
-  <si>
-    <t>泡泡喷发装置</t>
-  </si>
-  <si>
-    <t>陷阱被放置到家具上之后，需要30s生效。扣除敌人2点精神值并使其致盲。使陷阱覆盖范围的地板变成【泡泡地板】</t>
-  </si>
-  <si>
-    <t>icon/trap/bubble_blaster</t>
-  </si>
-  <si>
-    <t>Time_Valid|Positive</t>
-  </si>
-  <si>
-    <t>玩家与陷阱附着的家具互动触发</t>
-  </si>
-  <si>
-    <t>T005</t>
-  </si>
-  <si>
-    <t>电动小车</t>
-  </si>
-  <si>
-    <t>向着车头的方向前进，撞到敌人之后会使其跌倒，前进的距离由电池的电量决定，撞到墙了陷阱也会停下，同时发出较大的声音</t>
-  </si>
-  <si>
-    <t>icon/trap/toycar_bullet</t>
-  </si>
-  <si>
-    <t>持续时间 = {电池当前电量/10}</t>
-  </si>
-  <si>
-    <t>T006</t>
-  </si>
-  <si>
-    <t>人体弹弓（粘性秋千）</t>
-  </si>
-  <si>
-    <t>当敌人靠近陷阱时会被粘住，随后会被粘在秋千上。若玩家不在敌人附近，敌人将花费10s解除陷阱。若玩家靠近敌人，敌人会被吸引，并在往玩家方向移动一定距离之后，做往复运动。3次往复运动后会被抛飞至一定距离。若落点处没有其他陷阱，敌人会被扣除三点精神值。随后进入眼冒金星状态。</t>
-  </si>
-  <si>
-    <t>icon/trap/mankind_swinger</t>
-  </si>
-  <si>
-    <t>T007</t>
-  </si>
-  <si>
-    <t>木马头槌（锤头木马）</t>
-  </si>
-  <si>
-    <t>当玩家与陷阱互动之后，会抱住木马，此时玩家可以拖动木马往后挪动至多两格的距离（越往后移动速度越慢）。随后按下互动键释放木马，木马会回弹，对移动方向上的敌人造成伤害。蓄力的距离越长，回弹的距离越长，伤害越高。若没有击中敌人，则会再次回弹，如果击中玩家，玩家将眩晕1s</t>
-  </si>
-  <si>
-    <t>icon/trap/horse_fist</t>
-  </si>
-  <si>
-    <t>T008</t>
-  </si>
-  <si>
-    <t>火山毒蛇（升龙跷跷板）</t>
-  </si>
-  <si>
-    <t>玩家在冲刺跳上跷跷板，使另外一边如同升龙拳一般向上抬升。若成功击中敌人，将其击飞三格，反之使自身陷入0.5s的硬直时间</t>
-  </si>
-  <si>
-    <t>icon/trap/volcanic_viper</t>
-  </si>
-  <si>
-    <t>玩家冲刺触发</t>
-  </si>
-  <si>
-    <t>只有在翘起的那一侧下压才会触发</t>
-  </si>
-  <si>
-    <t>，</t>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>材料描述</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>材料图标路径</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拾取材料声音</t>
+    </r>
+  </si>
+  <si>
+    <t>#拾取材料粒子特效</t>
+  </si>
+  <si>
+    <t>#稀有度</t>
+  </si>
+  <si>
+    <t>#使用材料声音</t>
+  </si>
+  <si>
+    <t>#使用材料粒子特效</t>
+  </si>
+  <si>
+    <t>M001</t>
+  </si>
+  <si>
+    <t>绳子</t>
+  </si>
+  <si>
+    <t>M002</t>
+  </si>
+  <si>
+    <t>桶</t>
+  </si>
+  <si>
+    <t>M003</t>
+  </si>
+  <si>
+    <t>装满水的桶</t>
+  </si>
+  <si>
+    <t>M004</t>
+  </si>
+  <si>
+    <t>地钉</t>
+  </si>
+  <si>
+    <t>M005</t>
+  </si>
+  <si>
+    <t>电池</t>
+  </si>
+  <si>
+    <t>M006</t>
+  </si>
+  <si>
+    <t>铁丝</t>
+  </si>
+  <si>
+    <t>M007</t>
+  </si>
+  <si>
+    <t>洗衣液</t>
+  </si>
+  <si>
+    <t>M008</t>
+  </si>
+  <si>
+    <t>泡泡水</t>
+  </si>
+  <si>
+    <t>M009</t>
+  </si>
+  <si>
+    <t>肥皂</t>
+  </si>
+  <si>
+    <t>M010</t>
+  </si>
+  <si>
+    <t>小车</t>
+  </si>
+  <si>
+    <t>M011</t>
+  </si>
+  <si>
+    <t>沙发坐垫</t>
+  </si>
+  <si>
+    <t>M012</t>
+  </si>
+  <si>
+    <t>一管白胶</t>
   </si>
   <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>rare</t>
-  </si>
-  <si>
-    <t>detail</t>
-  </si>
-  <si>
-    <t>M001</t>
-  </si>
-  <si>
-    <t>绳子</t>
-  </si>
-  <si>
-    <t>一截绳子，可用来上吊</t>
-  </si>
-  <si>
-    <t>M002</t>
-  </si>
-  <si>
-    <t>桶</t>
-  </si>
-  <si>
-    <t>想要cosplay铁桶僵尸吗</t>
-  </si>
-  <si>
-    <t>M003</t>
-  </si>
-  <si>
-    <t>装满水的桶</t>
-  </si>
-  <si>
-    <t>好沉</t>
-  </si>
-  <si>
-    <t>使用空桶在水龙头处互动获得</t>
-  </si>
-  <si>
-    <t>M004</t>
-  </si>
-  <si>
-    <t>地钉</t>
-  </si>
-  <si>
-    <t>不是耶稣手里的那个</t>
-  </si>
-  <si>
-    <t>M005</t>
-  </si>
-  <si>
-    <t>电池</t>
-  </si>
-  <si>
-    <t>不可以吃</t>
-  </si>
-  <si>
-    <t>M006</t>
-  </si>
-  <si>
-    <t>铁丝</t>
-  </si>
-  <si>
-    <t>缠在手指上就是戒指</t>
-  </si>
-  <si>
-    <t>M007</t>
-  </si>
-  <si>
-    <t>洗衣液</t>
-  </si>
-  <si>
-    <t>不好喝</t>
-  </si>
-  <si>
-    <t>M008</t>
-  </si>
-  <si>
-    <t>泡泡水</t>
-  </si>
-  <si>
-    <t>使用洗衣液和肥皂合成</t>
-  </si>
-  <si>
-    <t>M009</t>
-  </si>
-  <si>
-    <t>肥皂</t>
-  </si>
-  <si>
-    <t>M010</t>
-  </si>
-  <si>
-    <t>小车</t>
-  </si>
-  <si>
-    <t>遥控不见了，只能往前走</t>
-  </si>
-  <si>
-    <t>M011</t>
-  </si>
-  <si>
-    <t>沙发坐垫</t>
-  </si>
-  <si>
-    <t>记录三战（第三次枕头大战）的珍贵史料</t>
-  </si>
-  <si>
-    <t>M012</t>
-  </si>
-  <si>
-    <t>一管白胶</t>
-  </si>
-  <si>
-    <t>沾到了很难洗掉</t>
   </si>
   <si>
     <t>buffName</t>
@@ -712,6 +611,9 @@
     <t>D009</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>F001</t>
   </si>
   <si>
@@ -839,6 +741,15 @@
   </si>
   <si>
     <t>数量</t>
+  </si>
+  <si>
+    <t>T004</t>
+  </si>
+  <si>
+    <t>T005</t>
+  </si>
+  <si>
+    <t>T006</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -1124,222 +1035,6 @@
   </si>
   <si>
     <t>主动技能id</t>
-  </si>
-  <si>
-    <t>类别</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>文件命名</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>参考</t>
-  </si>
-  <si>
-    <t>玩家走动</t>
-  </si>
-  <si>
-    <t>在地板上走路</t>
-  </si>
-  <si>
-    <t>player_walk_ground</t>
-  </si>
-  <si>
-    <t>在地板上走路的声音</t>
-  </si>
-  <si>
-    <t>在木制地板上走路</t>
-  </si>
-  <si>
-    <t>player_walk_wood</t>
-  </si>
-  <si>
-    <t>木板地面上的脚步声，带有轻微木头吱呀声</t>
-  </si>
-  <si>
-    <t>在老木制地板上走路</t>
-  </si>
-  <si>
-    <t>playe_walk_wood_broken</t>
-  </si>
-  <si>
-    <t>走在老木屋地板上的脚步声，有较大吱呀声</t>
-  </si>
-  <si>
-    <t>在草地上走路</t>
-  </si>
-  <si>
-    <t>player_walk_grass</t>
-  </si>
-  <si>
-    <t>在草地上走路的声音</t>
-  </si>
-  <si>
-    <t>在地毯上走路</t>
-  </si>
-  <si>
-    <t>player_walk_carpet</t>
-  </si>
-  <si>
-    <t>在地毯上走路的声音，柔软、低沉</t>
-  </si>
-  <si>
-    <t>玩家跑动</t>
-  </si>
-  <si>
-    <t>在地板上跑步</t>
-  </si>
-  <si>
-    <t>player_run_ground</t>
-  </si>
-  <si>
-    <t>小孩在地板上奔跑的声音</t>
-  </si>
-  <si>
-    <t>在木制地板上跑步</t>
-  </si>
-  <si>
-    <t>player_run_wood</t>
-  </si>
-  <si>
-    <t>小孩在木板上奔跑，频密的木头吱呀声</t>
-  </si>
-  <si>
-    <t>在老木地板上跑步</t>
-  </si>
-  <si>
-    <t>player_run_wood_broken</t>
-  </si>
-  <si>
-    <t>小孩在老木板上奔跑，剧烈吱嘎响</t>
-  </si>
-  <si>
-    <t>在草地上跑步</t>
-  </si>
-  <si>
-    <t>player_run_grass</t>
-  </si>
-  <si>
-    <t>小孩在草地上奔跑，带有沙沙摩擦感</t>
-  </si>
-  <si>
-    <t>在地毯上跑步</t>
-  </si>
-  <si>
-    <t>player_run_carpet</t>
-  </si>
-  <si>
-    <t>小孩在地毯上奔跑，节奏快但柔和低沉</t>
-  </si>
-  <si>
-    <t>敌人走动</t>
-  </si>
-  <si>
-    <t>enemy_walk_ground</t>
-  </si>
-  <si>
-    <t>敌人在地板上走路，脚步更重</t>
-  </si>
-  <si>
-    <t>enemy_walk_wood</t>
-  </si>
-  <si>
-    <t>敌人在木板地上走，木头吱呀声更明显</t>
-  </si>
-  <si>
-    <t>在老木地板上走路</t>
-  </si>
-  <si>
-    <t>enemy_walk_wood_broken</t>
-  </si>
-  <si>
-    <t>敌人在老木屋地板上走，吱嘎声厚重</t>
-  </si>
-  <si>
-    <t>enemy_walk_grass</t>
-  </si>
-  <si>
-    <t>敌人在草地上走，摩擦声更深沉</t>
-  </si>
-  <si>
-    <t>enemy_walk_carpet</t>
-  </si>
-  <si>
-    <t>敌人在地毯上走，声音更闷重</t>
-  </si>
-  <si>
-    <t>敌人跑动</t>
-  </si>
-  <si>
-    <t>enemy_run_ground</t>
-  </si>
-  <si>
-    <t>敌人在地板上奔跑，步伐急促厚重</t>
-  </si>
-  <si>
-    <t>enemy_run_wood</t>
-  </si>
-  <si>
-    <t>敌人在木板上奔跑，频率快吱嘎声更响</t>
-  </si>
-  <si>
-    <t>enemy_run_wood_broken</t>
-  </si>
-  <si>
-    <t>敌人在老木板上跑，响声重带震动感</t>
-  </si>
-  <si>
-    <t>enemy_run_grass</t>
-  </si>
-  <si>
-    <t>敌人在草地奔跑，脚步声低沉沙沙声浓</t>
-  </si>
-  <si>
-    <t>enemy_run_carpet</t>
-  </si>
-  <si>
-    <t>敌人在地毯上跑，声音沉稳节奏感强</t>
-  </si>
-  <si>
-    <t>陷阱设置</t>
-  </si>
-  <si>
-    <t>放置所有陷阱的音效</t>
-  </si>
-  <si>
-    <t>trap_set</t>
-  </si>
-  <si>
-    <t>玩家将陷阱设置的音效，比较像机关设置的音效</t>
-  </si>
-  <si>
-    <t>敌人被动</t>
-  </si>
-  <si>
-    <t>神经质(被动名)语音(男）</t>
-  </si>
-  <si>
-    <t>enemy_passive_bark_male</t>
-  </si>
-  <si>
-    <t>用含糊不清的语言大叫</t>
-  </si>
-  <si>
-    <t>神经质(被动名)语音(女）</t>
-  </si>
-  <si>
-    <t>enemy_passive_bark_female</t>
-  </si>
-  <si>
-    <t>敌人受击</t>
-  </si>
-  <si>
-    <t>敌人受击_轻</t>
   </si>
 </sst>
 </file>
@@ -1970,7 +1665,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1982,9 +1677,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2057,13 +1749,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2324,10 +2009,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2343,9 +2028,14 @@
     <col min="12" max="12" width="14.1666666666667" customWidth="1"/>
     <col min="13" max="13" width="17.8333333333333" customWidth="1"/>
     <col min="14" max="14" width="14.1666666666667" customWidth="1"/>
+    <col min="15" max="15" width="13.8333333333333" customWidth="1"/>
+    <col min="16" max="16" width="16.8333333333333" customWidth="1"/>
+    <col min="17" max="17" width="15.6666666666667" customWidth="1"/>
+    <col min="18" max="18" width="16.25" customWidth="1"/>
+    <col min="19" max="19" width="16.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:16">
+    <row r="1" ht="13" customHeight="1" spans="1:20">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2361,10 +2051,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2394,452 +2084,158 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" ht="13" customHeight="1" spans="1:16">
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="13" customHeight="1" spans="1:20">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" ht="25.5" customHeight="1" spans="1:15">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" ht="25.5" customHeight="1" spans="1:7">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>3</v>
-      </c>
-      <c r="G3" s="9">
-        <v>-2</v>
-      </c>
-      <c r="H3">
-        <v>-1</v>
-      </c>
-      <c r="I3">
-        <v>-1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>3</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" ht="25.5" customHeight="1" spans="1:15">
+        <v>41</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" spans="1:7">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>5</v>
-      </c>
-      <c r="G4" s="9">
-        <v>6</v>
-      </c>
-      <c r="H4">
-        <v>-1</v>
-      </c>
-      <c r="I4">
-        <v>-1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" t="s">
         <v>43</v>
       </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>3</v>
-      </c>
-      <c r="O4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" ht="25.5" customHeight="1" spans="1:16">
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" ht="25.5" customHeight="1" spans="1:7">
       <c r="A5" t="s">
         <v>44</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5">
-        <v>-2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" ht="25.5" customHeight="1" spans="1:15">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>3</v>
-      </c>
-      <c r="G6" s="9">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>30</v>
-      </c>
-      <c r="I6">
-        <v>-1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" ht="25.5" customHeight="1" spans="1:16">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>-1</v>
-      </c>
-      <c r="I7">
-        <v>-2</v>
-      </c>
-      <c r="J7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" ht="25.5" customHeight="1" spans="1:14">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9">
-        <v>-2</v>
-      </c>
-      <c r="H8">
-        <v>-1</v>
-      </c>
-      <c r="I8">
-        <v>-1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="25.5" customHeight="1" spans="1:14">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>3</v>
-      </c>
-      <c r="G9" s="9">
-        <v>-2</v>
-      </c>
-      <c r="H9">
-        <v>-1</v>
-      </c>
-      <c r="I9">
-        <v>-1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" ht="25.5" customHeight="1" spans="1:16">
-      <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G10" s="9">
-        <v>7</v>
-      </c>
-      <c r="H10">
-        <v>-1</v>
-      </c>
-      <c r="I10">
-        <v>-1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3</v>
-      </c>
-      <c r="N10">
-        <v>3</v>
-      </c>
-      <c r="P10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1" spans="7:14">
-      <c r="G11" s="10"/>
-      <c r="N11" t="s">
-        <v>76</v>
-      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" ht="25.5" customHeight="1" spans="6:7">
+      <c r="F6" s="4"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" ht="25.5" customHeight="1" spans="6:7">
+      <c r="F7" s="4"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" ht="25.5" customHeight="1" spans="6:7">
+      <c r="F8" s="4"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" ht="25.5" customHeight="1" spans="6:7">
+      <c r="F9" s="4"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" ht="25.5" customHeight="1" spans="6:7">
+      <c r="F10" s="4"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" ht="25.5" customHeight="1" spans="7:7">
+      <c r="G11" s="9"/>
     </row>
     <row r="12" ht="25.5" customHeight="1" spans="6:7">
-      <c r="F12" s="7"/>
-      <c r="G12" s="10"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" ht="25.5" customHeight="1" spans="6:7">
       <c r="F13" s="4"/>
-      <c r="G13" s="10"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="6:7">
       <c r="F14" s="4"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="6:7">
       <c r="F15" s="4"/>
-      <c r="G15" s="10"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="6:7">
       <c r="F16" s="4"/>
@@ -2858,7 +2254,7 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="6:6">
-      <c r="F20" s="7"/>
+      <c r="F20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2884,33 +2280,33 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="C2" s="4">
         <v>100</v>
@@ -2930,47 +2326,47 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2997,33 +2393,33 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="C2" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -3031,16 +2427,16 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="D3" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -3048,42 +2444,42 @@
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3109,84 +2505,84 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="C1" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="C2" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="C3" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="D3" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -3214,33 +2610,33 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="C2" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="D2" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -3248,47 +2644,47 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3313,26 +2709,26 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:2">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="B3" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1"/>
@@ -3354,7 +2750,7 @@
   <sheetPr/>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3365,18 +2761,18 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:2">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1"/>
@@ -3394,576 +2790,220 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="6" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" ht="25.5" customHeight="1" spans="1:4">
-      <c r="A2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" ht="25.5" customHeight="1" spans="1:4">
-      <c r="A3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" ht="25.5" customHeight="1" spans="1:4">
-      <c r="A4" t="s">
-        <v>304</v>
-      </c>
-      <c r="B4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C4" t="s">
-        <v>312</v>
-      </c>
-      <c r="D4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" ht="25.5" customHeight="1" spans="1:4">
-      <c r="A5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B5" t="s">
-        <v>314</v>
-      </c>
-      <c r="C5" t="s">
-        <v>315</v>
-      </c>
-      <c r="D5" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="6" ht="25.5" customHeight="1" spans="1:4">
-      <c r="A6" t="s">
-        <v>304</v>
-      </c>
-      <c r="B6" t="s">
-        <v>317</v>
-      </c>
-      <c r="C6" t="s">
-        <v>318</v>
-      </c>
-      <c r="D6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="7" ht="25.5" customHeight="1" spans="1:4">
-      <c r="A7" t="s">
-        <v>320</v>
-      </c>
-      <c r="B7" t="s">
-        <v>321</v>
-      </c>
-      <c r="C7" t="s">
-        <v>322</v>
-      </c>
-      <c r="D7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="8" ht="25.5" customHeight="1" spans="1:4">
-      <c r="A8" t="s">
-        <v>320</v>
-      </c>
-      <c r="B8" t="s">
-        <v>324</v>
-      </c>
-      <c r="C8" t="s">
-        <v>325</v>
-      </c>
-      <c r="D8" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="9" ht="25.5" customHeight="1" spans="1:4">
-      <c r="A9" t="s">
-        <v>320</v>
-      </c>
-      <c r="B9" t="s">
-        <v>327</v>
-      </c>
-      <c r="C9" t="s">
-        <v>328</v>
-      </c>
-      <c r="D9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="10" ht="25.5" customHeight="1" spans="1:4">
-      <c r="A10" t="s">
-        <v>320</v>
-      </c>
-      <c r="B10" t="s">
-        <v>330</v>
-      </c>
-      <c r="C10" t="s">
-        <v>331</v>
-      </c>
-      <c r="D10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1" spans="1:4">
-      <c r="A11" t="s">
-        <v>320</v>
-      </c>
-      <c r="B11" t="s">
-        <v>333</v>
-      </c>
-      <c r="C11" t="s">
-        <v>334</v>
-      </c>
-      <c r="D11" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1" spans="1:4">
-      <c r="A12" t="s">
-        <v>336</v>
-      </c>
-      <c r="B12" t="s">
-        <v>305</v>
-      </c>
-      <c r="C12" t="s">
-        <v>337</v>
-      </c>
-      <c r="D12" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="13" ht="25.5" customHeight="1" spans="1:4">
-      <c r="A13" t="s">
-        <v>336</v>
-      </c>
-      <c r="B13" t="s">
-        <v>308</v>
-      </c>
-      <c r="C13" t="s">
-        <v>339</v>
-      </c>
-      <c r="D13" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="14" ht="25.5" customHeight="1" spans="1:4">
-      <c r="A14" t="s">
-        <v>336</v>
-      </c>
-      <c r="B14" t="s">
-        <v>341</v>
-      </c>
-      <c r="C14" t="s">
-        <v>342</v>
-      </c>
-      <c r="D14" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="15" ht="25.5" customHeight="1" spans="1:4">
-      <c r="A15" t="s">
-        <v>336</v>
-      </c>
-      <c r="B15" t="s">
-        <v>314</v>
-      </c>
-      <c r="C15" t="s">
-        <v>344</v>
-      </c>
-      <c r="D15" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="16" ht="25.5" customHeight="1" spans="1:4">
-      <c r="A16" t="s">
-        <v>336</v>
-      </c>
-      <c r="B16" t="s">
-        <v>317</v>
-      </c>
-      <c r="C16" t="s">
-        <v>346</v>
-      </c>
-      <c r="D16" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="17" ht="25.5" customHeight="1" spans="1:4">
-      <c r="A17" t="s">
-        <v>348</v>
-      </c>
-      <c r="B17" t="s">
-        <v>321</v>
-      </c>
-      <c r="C17" t="s">
-        <v>349</v>
-      </c>
-      <c r="D17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="18" ht="25.5" customHeight="1" spans="1:4">
-      <c r="A18" t="s">
-        <v>348</v>
-      </c>
-      <c r="B18" t="s">
-        <v>324</v>
-      </c>
-      <c r="C18" t="s">
-        <v>351</v>
-      </c>
-      <c r="D18" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="19" ht="25.5" customHeight="1" spans="1:4">
-      <c r="A19" t="s">
-        <v>348</v>
-      </c>
-      <c r="B19" t="s">
-        <v>327</v>
-      </c>
-      <c r="C19" t="s">
-        <v>353</v>
-      </c>
-      <c r="D19" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="20" ht="25.5" customHeight="1" spans="1:4">
-      <c r="A20" t="s">
-        <v>348</v>
-      </c>
-      <c r="B20" t="s">
-        <v>330</v>
-      </c>
-      <c r="C20" t="s">
-        <v>355</v>
-      </c>
-      <c r="D20" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="21" ht="25.5" customHeight="1" spans="1:4">
-      <c r="A21" t="s">
-        <v>348</v>
-      </c>
-      <c r="B21" t="s">
-        <v>333</v>
-      </c>
-      <c r="C21" t="s">
-        <v>357</v>
-      </c>
-      <c r="D21" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="22" ht="25.5" customHeight="1" spans="1:4">
-      <c r="A22" t="s">
-        <v>359</v>
-      </c>
-      <c r="B22" t="s">
-        <v>360</v>
-      </c>
-      <c r="C22" t="s">
-        <v>361</v>
-      </c>
-      <c r="D22" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="23" ht="25.5" customHeight="1" spans="1:4">
-      <c r="A23" t="s">
-        <v>363</v>
-      </c>
-      <c r="B23" t="s">
-        <v>364</v>
-      </c>
-      <c r="C23" t="s">
-        <v>365</v>
-      </c>
-      <c r="D23" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="24" ht="25.5" customHeight="1" spans="1:4">
-      <c r="A24" t="s">
-        <v>363</v>
-      </c>
-      <c r="B24" t="s">
-        <v>367</v>
-      </c>
-      <c r="C24" t="s">
-        <v>368</v>
-      </c>
-      <c r="D24" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="25" ht="25.5" customHeight="1" spans="1:2">
-      <c r="A25" t="s">
-        <v>369</v>
-      </c>
-      <c r="B25" t="s">
-        <v>370</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="37.25" customWidth="1"/>
     <col min="5" max="6" width="19" customWidth="1"/>
+    <col min="8" max="8" width="14.4166666666667" customWidth="1"/>
+    <col min="9" max="9" width="18.0833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:5">
+    <row r="1" ht="13" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" ht="25.5" customHeight="1" spans="1:4">
-      <c r="A2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2">
-        <v>0.5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" ht="25.5" customHeight="1" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" ht="25.5" customHeight="1" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" ht="25.5" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3">
-        <v>0.4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>86</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:5">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4">
-        <v>-1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" ht="25.5" customHeight="1" spans="1:4">
+        <v>65</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" ht="25.5" customHeight="1" spans="1:5">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5">
-        <v>0.4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" ht="25.5" customHeight="1" spans="1:4">
+        <v>67</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" ht="25.5" customHeight="1" spans="1:5">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6">
-        <v>0.3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" ht="25.5" customHeight="1" spans="1:4">
+        <v>69</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" ht="25.5" customHeight="1" spans="1:5">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7">
-        <v>0.6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" ht="25.5" customHeight="1" spans="1:4">
+        <v>71</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" ht="25.5" customHeight="1" spans="1:5">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>102</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:5">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9">
-        <v>-1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" ht="25.5" customHeight="1" spans="1:3">
+        <v>75</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" ht="25.5" customHeight="1" spans="1:5">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1" spans="1:4">
+        <v>77</v>
+      </c>
+      <c r="C10"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" ht="25.5" customHeight="1" spans="1:5">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>79</v>
+      </c>
+      <c r="C11"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>81</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13">
-        <v>0.6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>116</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3989,86 +3029,86 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="G1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="H1" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="I1" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="J1" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="H2" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="J2" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:9">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -4079,22 +3119,22 @@
     </row>
     <row r="4" ht="42" spans="1:9">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>143</v>
+        <v>112</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -4105,22 +3145,22 @@
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:9">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -4131,22 +3171,22 @@
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:9">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -4157,22 +3197,22 @@
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:9">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -4183,22 +3223,22 @@
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4224,93 +3264,93 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:3">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:3">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:3">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:3">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4335,98 +3375,98 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:2">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:2">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:2">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:2">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:2">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:2">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:2">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1" spans="1:2">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4441,7 +3481,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -4451,21 +3491,21 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4473,10 +3513,10 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4484,10 +3524,10 @@
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4495,10 +3535,10 @@
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -4506,10 +3546,10 @@
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -4520,7 +3560,7 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4531,7 +3571,7 @@
         <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -4539,10 +3579,10 @@
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:3">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -4550,10 +3590,10 @@
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -4561,10 +3601,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -4572,10 +3612,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -4583,10 +3623,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="B13" t="str">
-        <f>材料!A12</f>
+        <f>material!A13</f>
         <v>M011</v>
       </c>
       <c r="C13">
@@ -4595,10 +3635,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="B14" t="str">
-        <f>材料!A13</f>
+        <f>material!A14</f>
         <v>M012</v>
       </c>
       <c r="C14">
@@ -4606,12 +3646,12 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" t="str">
+      <c r="A15">
         <f>trap!A9</f>
-        <v>T007</v>
+        <v>0</v>
       </c>
       <c r="B15" t="str">
-        <f>材料!A3</f>
+        <f>material!A4</f>
         <v>M002</v>
       </c>
       <c r="C15">
@@ -4619,12 +3659,12 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="str">
+      <c r="A16">
         <f>trap!A9</f>
-        <v>T007</v>
+        <v>0</v>
       </c>
       <c r="B16" t="str">
-        <f>材料!A2</f>
+        <f>material!A3</f>
         <v>M001</v>
       </c>
       <c r="C16">
@@ -4632,12 +3672,12 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="str">
+      <c r="A17">
         <f>trap!A10</f>
-        <v>T008</v>
+        <v>0</v>
       </c>
       <c r="B17" t="str">
-        <f>材料!A3</f>
+        <f>material!A4</f>
         <v>M002</v>
       </c>
       <c r="C17">
@@ -4645,12 +3685,12 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="str">
+      <c r="A18">
         <f>trap!A10</f>
-        <v>T008</v>
+        <v>0</v>
       </c>
       <c r="B18" t="str">
-        <f>材料!A7</f>
+        <f>material!A8</f>
         <v>M006</v>
       </c>
       <c r="C18">
@@ -4679,13 +3719,13 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:3">
@@ -4693,10 +3733,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:3">
@@ -4704,7 +3744,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="C3" t="str">
         <f>家具!A3</f>
@@ -4779,7 +3819,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:B24"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -4789,13 +3829,13 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:3">
@@ -4803,10 +3843,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:3">
@@ -4814,10 +3854,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:3">
@@ -4825,10 +3865,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:3">
@@ -4836,10 +3876,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:3">
@@ -4847,10 +3887,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:3">
@@ -4858,10 +3898,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:3">
@@ -4869,10 +3909,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:3">
@@ -4880,10 +3920,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:3">
@@ -4891,10 +3931,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:3">
@@ -4902,10 +3942,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4913,10 +3953,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4928,7 +3968,7 @@
         <v>B004</v>
       </c>
       <c r="C13" t="str">
-        <f>材料!A12</f>
+        <f>material!A13</f>
         <v>M011</v>
       </c>
     </row>
@@ -4941,7 +3981,7 @@
         <v>B002</v>
       </c>
       <c r="C14" t="str">
-        <f>材料!A13</f>
+        <f>material!A14</f>
         <v>M012</v>
       </c>
     </row>
@@ -4956,7 +3996,7 @@
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -4969,77 +4009,77 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="D1" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" ht="42" spans="1:4">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>214</v>
+      <c r="D2" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>223</v>
-      </c>
-      <c r="C11" s="6"/>
+        <v>197</v>
+      </c>
+      <c r="C11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Assets/RefData/Excels/小鬼当家配置表.xlsx
+++ b/Assets/RefData/Excels/小鬼当家配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080" tabRatio="905" activeTab="14"/>
+    <workbookView windowWidth="24750" windowHeight="12080" tabRatio="905"/>
   </bookViews>
   <sheets>
     <sheet name="trap" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="266">
   <si>
     <t>trapID</t>
   </si>
@@ -52,9 +52,6 @@
     <t>trapDesc</t>
   </si>
   <si>
-    <t>trapIconPath</t>
-  </si>
-  <si>
     <t>trapLevel</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
     <t>validType</t>
   </si>
   <si>
+    <t>validTime</t>
+  </si>
+  <si>
     <t>deadTypeList</t>
   </si>
   <si>
@@ -76,30 +76,6 @@
     <t>placeTime</t>
   </si>
   <si>
-    <t>interactSoundName</t>
-  </si>
-  <si>
-    <t>pickSoundName</t>
-  </si>
-  <si>
-    <t>workSoundName</t>
-  </si>
-  <si>
-    <t>deadSoundName</t>
-  </si>
-  <si>
-    <t>interactParticleName</t>
-  </si>
-  <si>
-    <t>pickParticleName</t>
-  </si>
-  <si>
-    <t>workParticleName</t>
-  </si>
-  <si>
-    <t>deadParticleName</t>
-  </si>
-  <si>
     <t>Score</t>
   </si>
   <si>
@@ -112,35 +88,30 @@
     <t>#陷阱描述</t>
   </si>
   <si>
-    <r>
-      <t>#</t>
-    </r>
+    <t>#陷阱评级</t>
+  </si>
+  <si>
+    <t>#陷阱伤害</t>
+  </si>
+  <si>
+    <t>#触发类型</t>
+  </si>
+  <si>
+    <t>#生效方式</t>
+  </si>
+  <si>
+    <t>#生效时间</t>
+  </si>
+  <si>
+    <t>#销毁类型</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>图标路径</t>
-    </r>
-  </si>
-  <si>
-    <t>#陷阱评级</t>
-  </si>
-  <si>
-    <t>#陷阱伤害</t>
-  </si>
-  <si>
-    <t>#陷阱类型</t>
-  </si>
-  <si>
-    <t>#生效时间</t>
-  </si>
-  <si>
-    <t>#销毁类型</t>
-  </si>
-  <si>
-    <r>
       <t>#</t>
     </r>
     <r>
@@ -154,6 +125,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>#</t>
     </r>
     <r>
@@ -166,103 +142,81 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>#</t>
-    </r>
+    <t>#得分</t>
+  </si>
+  <si>
+    <t>T001</t>
+  </si>
+  <si>
+    <t>水桶摆锤_主动_基础</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    向玩家面朝的方向飞去，扣除敌人x点精神值，使敌人往后退一段距离。</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Immediate</t>
+  </si>
+  <si>
+    <t>T002</t>
+  </si>
+  <si>
+    <t>水桶摆锤_被动_绊线</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    向固定的方向飞去，扣除敌人x点精神值，使敌人往后退一段距离。</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>T003</t>
+  </si>
+  <si>
+    <t>电动小车</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    向着车头的方向前进，撞到敌人之后会使其跌倒并扣除x点精神值，撞到墙了陷阱也会停下，同时发出较大的声音</t>
+  </si>
+  <si>
+    <t>TimeDelay;ExternalEvent</t>
+  </si>
+  <si>
+    <t>materialID</t>
+  </si>
+  <si>
+    <t>materialName</t>
+  </si>
+  <si>
+    <t>materialDesc</t>
+  </si>
+  <si>
+    <t>materialIconPath</t>
+  </si>
+  <si>
+    <t>pickSoundName</t>
+  </si>
+  <si>
+    <t>pickParticleName</t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>useSoundName</t>
+  </si>
+  <si>
+    <t>useParticleName</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>互动声音</t>
-    </r>
-  </si>
-  <si>
-    <t>#拾取声音</t>
-  </si>
-  <si>
-    <r>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>触发声音</t>
-    </r>
-  </si>
-  <si>
-    <t>销毁声音</t>
-  </si>
-  <si>
-    <r>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>互动粒子特效</t>
-    </r>
-  </si>
-  <si>
-    <t>#拾取粒子特效</t>
-  </si>
-  <si>
-    <t>#触发粒子特效</t>
-  </si>
-  <si>
-    <t>#销毁粒子特效</t>
-  </si>
-  <si>
-    <t>#得分</t>
-  </si>
-  <si>
-    <t>T001</t>
-  </si>
-  <si>
-    <t>水桶摆锤_主动_基础</t>
-  </si>
-  <si>
-    <t>T002</t>
-  </si>
-  <si>
-    <t>水桶摆锤_被动_绊线</t>
-  </si>
-  <si>
-    <t>T003</t>
-  </si>
-  <si>
-    <t>电动小车</t>
-  </si>
-  <si>
-    <t>materialID</t>
-  </si>
-  <si>
-    <t>materialName</t>
-  </si>
-  <si>
-    <t>materialDesc</t>
-  </si>
-  <si>
-    <t>materialIconPath</t>
-  </si>
-  <si>
-    <t>Rare</t>
-  </si>
-  <si>
-    <t>useSoundName</t>
-  </si>
-  <si>
-    <t>useParticleName</t>
-  </si>
-  <si>
-    <r>
       <t>#</t>
     </r>
     <r>
@@ -276,6 +230,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>#</t>
     </r>
     <r>
@@ -289,6 +248,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>#</t>
     </r>
     <r>
@@ -302,6 +266,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>#</t>
     </r>
     <r>
@@ -315,6 +284,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>#</t>
     </r>
     <r>
@@ -1665,7 +1639,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1678,17 +1652,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2009,17 +2000,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="13.525" customWidth="1"/>
+    <col min="3" max="3" width="103.833333333333" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="9.75" customWidth="1"/>
     <col min="6" max="9" width="19" customWidth="1"/>
@@ -2035,207 +2026,320 @@
     <col min="19" max="19" width="16.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:20">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="13" customHeight="1" spans="1:14">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="10"/>
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" ht="13" customHeight="1" spans="1:14">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="F2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="G2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="H2" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" ht="13" customHeight="1" spans="1:20">
-      <c r="A2" s="2" t="s">
+      <c r="I2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="J2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="K2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="L2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="M2" s="10"/>
+      <c r="N2" s="16"/>
+    </row>
+    <row r="3" ht="25.5" customHeight="1" spans="1:14">
+      <c r="A3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="B3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="C3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11">
+        <v>30</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="G3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="H3" s="10">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="10">
+        <v>1</v>
+      </c>
+      <c r="K3" s="10">
+        <v>3</v>
+      </c>
+      <c r="L3" s="10">
+        <v>30</v>
+      </c>
+      <c r="M3" s="10"/>
+      <c r="N3" s="16"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" spans="1:14">
+      <c r="A4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="B4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="C4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11">
+        <v>40</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="G4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="10">
+        <v>-1</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="10">
+        <v>1</v>
+      </c>
+      <c r="K4" s="10">
+        <v>4</v>
+      </c>
+      <c r="L4" s="10">
+        <v>40</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="N4" s="16"/>
+    </row>
+    <row r="5" ht="25.5" customHeight="1" spans="1:14">
+      <c r="A5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="B5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="C5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>20</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="10">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="R2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" ht="25.5" customHeight="1" spans="1:7">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" ht="25.5" customHeight="1" spans="1:7">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" ht="25.5" customHeight="1" spans="1:7">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" ht="25.5" customHeight="1" spans="6:7">
-      <c r="F6" s="4"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" ht="25.5" customHeight="1" spans="6:7">
-      <c r="F7" s="4"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" ht="25.5" customHeight="1" spans="6:7">
-      <c r="F8" s="4"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" ht="25.5" customHeight="1" spans="6:7">
-      <c r="F9" s="4"/>
-      <c r="G9" s="8"/>
+      <c r="J5" s="10">
+        <v>3</v>
+      </c>
+      <c r="K5" s="10">
+        <v>1</v>
+      </c>
+      <c r="L5" s="10">
+        <v>20</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" ht="25.5" customHeight="1" spans="1:15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" ht="25.5" customHeight="1" spans="1:23">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="16"/>
+    </row>
+    <row r="8" ht="25.5" customHeight="1" spans="1:23">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="16"/>
+    </row>
+    <row r="9" ht="25.5" customHeight="1" spans="1:23">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="16"/>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="6:7">
       <c r="F10" s="4"/>
-      <c r="G10" s="8"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="7:7">
-      <c r="G11" s="9"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" ht="25.5" customHeight="1" spans="6:7">
-      <c r="F12" s="6"/>
-      <c r="G12" s="9"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" ht="25.5" customHeight="1" spans="6:7">
       <c r="F13" s="4"/>
-      <c r="G13" s="9"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="6:7">
       <c r="F14" s="4"/>
-      <c r="G14" s="9"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="6:7">
       <c r="F15" s="4"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="6:7">
       <c r="F16" s="4"/>
@@ -2254,7 +2358,7 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="6:6">
-      <c r="F20" s="6"/>
+      <c r="F20" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2280,33 +2384,33 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C2" s="4">
         <v>100</v>
@@ -2326,47 +2430,47 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2393,33 +2497,33 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -2427,16 +2531,16 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -2444,42 +2548,42 @@
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2505,84 +2609,84 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2610,33 +2714,33 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -2644,47 +2748,47 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2709,26 +2813,26 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:2">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1"/>
@@ -2750,7 +2854,7 @@
   <sheetPr/>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2761,18 +2865,18 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:2">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1"/>
@@ -2810,190 +2914,168 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:9">
       <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="I2" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
+        <v>56</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:5">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
+        <v>58</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:5">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
+        <v>60</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:5">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6"/>
+        <v>62</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:5">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
+        <v>64</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:5">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8"/>
+        <v>66</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:5">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9"/>
+        <v>68</v>
+      </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:5">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10"/>
+        <v>70</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:5">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11"/>
+        <v>72</v>
+      </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12"/>
+        <v>74</v>
+      </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
+        <v>76</v>
+      </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14"/>
+        <v>78</v>
+      </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="5:5">
@@ -3029,86 +3111,86 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="I1" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" t="s">
         <v>88</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="I2" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="J2" t="s">
         <v>98</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:9">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3119,22 +3201,22 @@
     </row>
     <row r="4" ht="42" spans="1:9">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3145,22 +3227,22 @@
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:9">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3171,22 +3253,22 @@
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:9">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3197,22 +3279,22 @@
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:9">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3223,22 +3305,22 @@
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3264,93 +3346,93 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:3">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:3">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:3">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:3">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3375,98 +3457,98 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:2">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:2">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:2">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:2">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:2">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:2">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:2">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1" spans="1:2">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3491,21 +3573,21 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3513,10 +3595,10 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3524,10 +3606,10 @@
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3535,10 +3617,10 @@
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -3546,10 +3628,10 @@
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:3">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -3557,10 +3639,10 @@
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:3">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3568,10 +3650,10 @@
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:3">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3579,10 +3661,10 @@
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:3">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3590,10 +3672,10 @@
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -3601,10 +3683,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -3612,10 +3694,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -3623,7 +3705,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B13" t="str">
         <f>material!A13</f>
@@ -3635,7 +3717,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B14" t="str">
         <f>material!A14</f>
@@ -3719,13 +3801,13 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:3">
@@ -3733,10 +3815,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:3">
@@ -3744,7 +3826,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C3" t="str">
         <f>家具!A3</f>
@@ -3829,13 +3911,13 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:3">
@@ -3843,10 +3925,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:3">
@@ -3854,10 +3936,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:3">
@@ -3865,10 +3947,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:3">
@@ -3876,10 +3958,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:3">
@@ -3887,10 +3969,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:3">
@@ -3898,10 +3980,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:3">
@@ -3909,10 +3991,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:3">
@@ -3920,10 +4002,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:3">
@@ -3931,10 +4013,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:3">
@@ -3942,10 +4024,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3953,10 +4035,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4009,75 +4091,75 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" ht="42" spans="1:4">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C11" s="5"/>
     </row>
